--- a/doc/SA cert/Reviewer/lg_sa_document review_review2_TranAnhTai.xlsx
+++ b/doc/SA cert/Reviewer/lg_sa_document review_review2_TranAnhTai.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 HE 연구소 2016 [TWS]\04 아키텍트&amp;DX 심사\2023 아키텍트 심사 3차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taikt/Documents/code/codefun/doc/SA cert/Reviewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18E1035-F89A-3244-BF1C-21E53B809899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-105" windowWidth="23250" windowHeight="14610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -27,23 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>평가항목</t>
   </si>
@@ -286,24 +276,40 @@
   <si>
     <t>section 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I change these figure with new figure that have 
+legend description.</t>
+  </si>
+  <si>
+    <t>I updated it on new version.</t>
+  </si>
+  <si>
+    <t>I wrote this part.</t>
+  </si>
+  <si>
+    <t>I will update it soon.</t>
+  </si>
+  <si>
+    <t>NAD is Network Access Device, which indicates this SoC having a modem to communicate with backend through mobile network. I updated it in Acronym table.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -312,7 +318,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -461,7 +467,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,34 +744,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="11" customWidth="1"/>
-    <col min="8" max="8" width="44.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="44.83203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="11" customWidth="1"/>
     <col min="11" max="11" width="25.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -773,7 +779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -781,7 +787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16">
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
@@ -789,7 +795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
@@ -808,7 +814,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="7" customFormat="1">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
@@ -843,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="48">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -863,12 +869,14 @@
         <v>49</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -888,12 +896,14 @@
         <v>54</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="32">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -913,12 +923,14 @@
         <v>56</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -938,12 +950,14 @@
         <v>57</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -963,12 +977,14 @@
         <v>60</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -981,7 +997,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -994,7 +1010,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1007,7 +1023,7 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1020,7 +1036,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1033,7 +1049,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1046,7 +1062,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1059,7 +1075,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1072,7 +1088,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1085,7 +1101,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1097,7 +1113,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1110,7 +1126,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1123,7 +1139,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1136,7 +1152,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1149,7 +1165,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1162,7 +1178,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1175,7 +1191,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1188,7 +1204,7 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1201,7 +1217,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1214,7 +1230,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1227,7 +1243,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1240,7 +1256,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1253,7 +1269,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1266,7 +1282,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1279,7 +1295,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1292,7 +1308,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1305,7 +1321,7 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -1318,7 +1334,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1331,7 +1347,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1344,7 +1360,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -1357,7 +1373,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -1370,7 +1386,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -1383,7 +1399,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -1396,7 +1412,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1409,7 +1425,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1422,7 +1438,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -1435,7 +1451,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -1448,7 +1464,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -1461,7 +1477,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -1474,7 +1490,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -1487,7 +1503,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -1500,7 +1516,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -1513,7 +1529,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -1526,7 +1542,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -1539,7 +1555,7 @@
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -1552,7 +1568,7 @@
       <c r="J56" s="10"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -1565,7 +1581,7 @@
       <c r="J57" s="10"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1578,7 +1594,7 @@
       <c r="J58" s="10"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -1591,7 +1607,7 @@
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -1604,7 +1620,7 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -1617,7 +1633,7 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -1630,7 +1646,7 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -1643,7 +1659,7 @@
       <c r="J63" s="10"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -1656,7 +1672,7 @@
       <c r="J64" s="10"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -1669,7 +1685,7 @@
       <c r="J65" s="10"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -1682,7 +1698,7 @@
       <c r="J66" s="10"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -1695,7 +1711,7 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1708,7 +1724,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -1721,7 +1737,7 @@
       <c r="J69" s="10"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -1734,7 +1750,7 @@
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -1747,7 +1763,7 @@
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -1760,7 +1776,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -1773,7 +1789,7 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -1794,22 +1810,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"피드백종류"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>심사차수</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>평가항목</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>대응방법</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>최종피드백</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 D7:D165">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 D7:D165" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>피드백종류</formula1>
     </dataValidation>
   </dataValidations>
@@ -1822,23 +1838,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1852,7 +1868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1860,7 +1876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1888,7 +1904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1899,7 +1915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
@@ -1910,12 +1926,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1927,7 +1943,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1938,7 +1954,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
